--- a/Data_EXCEL/testing_excel.xlsx
+++ b/Data_EXCEL/testing_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1C839-3D4C-43EC-98A9-D8EA1E0FB155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B15E58-4C88-477C-95E4-47CED5400C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E0E978A2-954A-4145-8D3C-608026FDB923}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>titreme</t>
   </si>
@@ -125,13 +125,7 @@
     <t>ellerde_ve_ayaklarda_sogukluk</t>
   </si>
   <si>
-    <t>ruh_hali_degisiklikleri</t>
-  </si>
-  <si>
     <t>kilo_kaybi</t>
-  </si>
-  <si>
-    <t>yorgunluk_hali</t>
   </si>
   <si>
     <t>bademcik_yaralari</t>
@@ -368,9 +362,6 @@
     <t>carpinti</t>
   </si>
   <si>
-    <t>aceleci_olma</t>
-  </si>
-  <si>
     <t>ciltte_soyulma</t>
   </si>
   <si>
@@ -512,13 +503,16 @@
     <t>tehsis</t>
   </si>
   <si>
-    <t>su_toplama</t>
+    <t>ani_duygu_degisimi</t>
   </si>
   <si>
-    <t>agrili_yuruyus</t>
+    <t>uyusukluk</t>
   </si>
   <si>
-    <t>baldirda_belirgin_damarlar</t>
+    <t>bel_agrisi</t>
+  </si>
+  <si>
+    <t>yuzde_kasinti</t>
   </si>
   <si>
     <t>nefes_darligi</t>
@@ -542,7 +536,13 @@
     <t>kas_agrisi</t>
   </si>
   <si>
-    <t>ruhsal_durumda_degisim</t>
+    <t>net_dusunememe</t>
+  </si>
+  <si>
+    <t>baldirda_belirgin_damarlar</t>
+  </si>
+  <si>
+    <t>agrili_yuruyus</t>
   </si>
   <si>
     <t>iltihapli_sivilce_cikmasi</t>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>cilt_renginde_degisme</t>
+  </si>
+  <si>
+    <t>su_toplama</t>
   </si>
 </sst>
 </file>
@@ -905,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F396B3EC-1BB6-864A-8BB1-362D657D1218}">
   <dimension ref="A1:EC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
-      <selection activeCell="EE7" sqref="EE7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:EB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -992,145 +995,145 @@
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" t="s">
         <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
       </c>
       <c r="U1" t="s">
         <v>4</v>
       </c>
       <c r="V1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>36</v>
-      </c>
       <c r="AB1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AC1" t="s">
         <v>5</v>
       </c>
       <c r="AD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>45</v>
-      </c>
       <c r="AN1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="AO1" t="s">
         <v>6</v>
       </c>
       <c r="AP1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>51</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>53</v>
       </c>
       <c r="AW1" t="s">
         <v>7</v>
       </c>
       <c r="AX1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AY1" t="s">
         <v>8</v>
       </c>
       <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF1" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>65</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>67</v>
       </c>
       <c r="BN1" t="s">
         <v>9</v>
@@ -1142,85 +1145,85 @@
         <v>11</v>
       </c>
       <c r="BQ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB1" t="s">
         <v>164</v>
       </c>
-      <c r="BT1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>77</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>80</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>81</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>82</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>83</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>84</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>86</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>87</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>88</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>89</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>91</v>
       </c>
       <c r="CR1" t="s">
         <v>12</v>
@@ -1229,79 +1232,79 @@
         <v>13</v>
       </c>
       <c r="CT1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CU1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="CV1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY1" t="s">
         <v>92</v>
       </c>
-      <c r="CW1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>93</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>94</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>95</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>96</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>97</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>98</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>99</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>100</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>101</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>102</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>104</v>
       </c>
       <c r="DJ1" t="s">
         <v>14</v>
       </c>
       <c r="DK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DM1" t="s">
         <v>105</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DO1" t="s">
         <v>106</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DP1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DQ1" t="s">
         <v>107</v>
       </c>
-      <c r="DN1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>109</v>
-      </c>
       <c r="DR1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="DS1" t="s">
         <v>169</v>
@@ -1310,31 +1313,31 @@
         <v>170</v>
       </c>
       <c r="DU1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="DV1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="DW1" t="s">
         <v>171</v>
       </c>
       <c r="DX1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>111</v>
+      </c>
+      <c r="EB1" t="s">
         <v>112</v>
       </c>
-      <c r="DY1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>158</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>114</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>115</v>
-      </c>
       <c r="EC1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:133" x14ac:dyDescent="0.25">
@@ -1735,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:133" x14ac:dyDescent="0.25">
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:133" x14ac:dyDescent="0.25">
@@ -2537,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:133" x14ac:dyDescent="0.25">
@@ -3339,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:133" x14ac:dyDescent="0.25">
@@ -3740,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.25">
@@ -4141,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.25">
@@ -4943,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.25">
@@ -5344,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:133" x14ac:dyDescent="0.25">
@@ -5745,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="EC12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:133" x14ac:dyDescent="0.25">
@@ -6146,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="EC13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.25">
@@ -6547,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="EC14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.25">
@@ -6948,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="EC15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:133" x14ac:dyDescent="0.25">
@@ -7349,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="EC16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:133" x14ac:dyDescent="0.25">
@@ -7750,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="EC17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:133" x14ac:dyDescent="0.25">
@@ -8151,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="EC18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:133" x14ac:dyDescent="0.25">
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="EC19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:133" x14ac:dyDescent="0.25">
@@ -8953,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="EC20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:133" x14ac:dyDescent="0.25">
@@ -9354,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="EC21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
@@ -9755,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="EC22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -10156,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="EC23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -10557,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="EC24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.25">
@@ -10958,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="EC25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
@@ -11359,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="EC26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.25">
@@ -11760,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="EC27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:133" x14ac:dyDescent="0.25">
@@ -12161,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="EC28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:133" x14ac:dyDescent="0.25">
@@ -12562,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="EC29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:133" x14ac:dyDescent="0.25">
@@ -12963,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="EC30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:133" x14ac:dyDescent="0.25">
@@ -13364,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="EC31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:133" x14ac:dyDescent="0.25">
@@ -13765,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="EC32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:133" x14ac:dyDescent="0.25">
@@ -14166,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="EC33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:133" x14ac:dyDescent="0.25">
@@ -14567,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="EC34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:133" x14ac:dyDescent="0.25">
@@ -14968,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="EC35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:133" x14ac:dyDescent="0.25">
@@ -15369,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="EC36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:133" x14ac:dyDescent="0.25">
@@ -15770,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="EC37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:133" x14ac:dyDescent="0.25">
@@ -16171,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="EC38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:133" x14ac:dyDescent="0.25">
@@ -16572,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="EC39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:133" x14ac:dyDescent="0.25">
@@ -16973,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="EC40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:133" x14ac:dyDescent="0.25">
@@ -17374,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="EC41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:133" x14ac:dyDescent="0.25">
@@ -17775,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="EC42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
